--- a/misc/burndown-charts.xlsx
+++ b/misc/burndown-charts.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="_xlchart.v2.0" vbProcedure="false">Burndown!$C$2:$C$4</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="66">
   <si>
     <t xml:space="preserve">Backlog</t>
   </si>
@@ -179,6 +180,51 @@
   </si>
   <si>
     <t xml:space="preserve">Soporte routing con autenticacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrar jugadores para un equipo FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrar jugadores para un equipo BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar información de jugador FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar información de jugador BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar jugador FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar jugador BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generar fixture FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generar fixture BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear game/match/partido FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear game/match/partido BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver estadísticas equipo FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver estadísticas equipo BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver estadísticas jugador FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver estadísticas jugador BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review</t>
   </si>
 </sst>
 </file>
@@ -189,7 +235,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -241,12 +287,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -322,7 +362,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,7 +383,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,10 +408,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -462,7 +498,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -762,11 +798,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="60893611"/>
-        <c:axId val="21367991"/>
+        <c:axId val="18261192"/>
+        <c:axId val="12611841"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60893611"/>
+        <c:axId val="18261192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,12 +838,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21367991"/>
+        <c:crossAx val="12611841"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21367991"/>
+        <c:axId val="12611841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +876,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60893611"/>
+        <c:crossAx val="18261192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -853,6 +889,418 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Burndown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="f20000"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="f20000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="f20000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Burndown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a6a6a6"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="a6a6a6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="a6a6a6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="5559512"/>
+        <c:axId val="81414807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="5559512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81414807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="81414807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5559512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -921,7 +1369,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$3</c:f>
+              <c:f>Sheet3!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -961,7 +1409,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$O$2</c:f>
+              <c:f>Sheet3!$E$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1003,39 +1451,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$3:$O$3</c:f>
+              <c:f>Sheet3!$E$3:$O$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1050,7 +1498,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$4</c:f>
+              <c:f>Sheet3!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1090,7 +1538,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$O$2</c:f>
+              <c:f>Sheet3!$E$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1132,39 +1580,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$O$4</c:f>
+              <c:f>Sheet3!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.4</c:v>
+                  <c:v>41.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.8</c:v>
+                  <c:v>36.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.2</c:v>
+                  <c:v>32.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.6</c:v>
+                  <c:v>27.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.4</c:v>
+                  <c:v>18.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2</c:v>
+                  <c:v>9.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6</c:v>
+                  <c:v>4.59999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1174,11 +1622,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34243247"/>
-        <c:axId val="45925175"/>
+        <c:axId val="21785524"/>
+        <c:axId val="25945365"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34243247"/>
+        <c:axId val="21785524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,12 +1662,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45925175"/>
+        <c:crossAx val="25945365"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45925175"/>
+        <c:axId val="25945365"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1700,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34243247"/>
+        <c:crossAx val="21785524"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1333,7 +1781,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$3</c:f>
+              <c:f>Sheet4!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1373,7 +1821,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$E$2:$O$2</c:f>
+              <c:f>Sheet4!$E$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1415,42 +1863,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$E$3:$O$3</c:f>
+              <c:f>Sheet4!$E$3:$O$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,7 +1910,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$4</c:f>
+              <c:f>Sheet4!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1502,7 +1950,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$E$2:$O$2</c:f>
+              <c:f>Sheet4!$E$2:$O$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1544,39 +1992,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$E$4:$O$4</c:f>
+              <c:f>Sheet4!$E$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.4</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.8</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.2</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.6</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.8</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.19999999999999</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.59999999999999</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1586,11 +2034,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43123449"/>
-        <c:axId val="62483024"/>
+        <c:axId val="74642919"/>
+        <c:axId val="44768828"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43123449"/>
+        <c:axId val="74642919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,12 +2074,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62483024"/>
+        <c:crossAx val="44768828"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62483024"/>
+        <c:axId val="44768828"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +2112,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43123449"/>
+        <c:crossAx val="74642919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1703,9 +2151,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>451800</xdr:colOff>
+      <xdr:colOff>451440</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1713,8 +2161,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3932280" y="5556600"/>
-        <a:ext cx="7016040" cy="2285640"/>
+        <a:off x="3951360" y="5617800"/>
+        <a:ext cx="7025040" cy="2346120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1738,9 +2186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>507960</xdr:colOff>
+      <xdr:colOff>507600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1748,8 +2196,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3988440" y="3021120"/>
-        <a:ext cx="7016040" cy="2285640"/>
+        <a:off x="4007520" y="3021120"/>
+        <a:ext cx="7025040" cy="2285280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1773,9 +2221,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>569160</xdr:colOff>
+      <xdr:colOff>568800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1783,8 +2231,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4049640" y="3789000"/>
-        <a:ext cx="7016040" cy="2285640"/>
+        <a:off x="4068720" y="3789000"/>
+        <a:ext cx="7025040" cy="2285280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>169200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>329400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3829320" y="4515480"/>
+        <a:ext cx="7025040" cy="2285280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1827,12 +2310,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2752,10 +3234,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="9" t="n">
         <v>5</v>
       </c>
@@ -2848,12 +3330,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3257,19 +3738,18 @@
   </sheetPr>
   <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S25" activeCellId="0" sqref="S25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3647,7 +4127,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="12" t="n">
         <v>4</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -3689,7 +4169,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="12" t="n">
         <v>6</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -3731,7 +4211,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="12" t="n">
         <v>6</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -3773,7 +4253,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="12" t="n">
         <v>4</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -3815,7 +4295,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="13" t="n">
+      <c r="D15" s="12" t="n">
         <v>3</v>
       </c>
       <c r="E15" s="10" t="s">
@@ -3857,7 +4337,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>3</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -3908,11 +4388,846 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
   </mergeCells>
-  <conditionalFormatting sqref="B7:O10,F11:O16">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:O20"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="52.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <f aca="false">COUNTIF(E7:E23,B2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <f aca="false">COUNTIF(E7:E23,B3)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <f aca="false">SUM(D7:D23)</f>
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <f aca="false">IF(SUM(F7:O23)=0,#N/A,$E3-SUM(F7:F23))</f>
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <f aca="false">IF(SUM(G7:O23)=0,#N/A,$E3-SUM(F7:G23))</f>
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <f aca="false">IF(SUM(H7:O23)=0,#N/A,$E3-SUM(F7:H23))</f>
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <f aca="false">IF(SUM(I7:O23)=0,#N/A,$E3-SUM(F7:I23))</f>
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <f aca="false">IF(SUM(J7:O23)=0,#N/A,$E3-SUM(F7:J23))</f>
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <f aca="false">IF(SUM(K7:O23)=0,#N/A,$E3-SUM(F7:K23))</f>
+        <v>16</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <f aca="false">IF(SUM(L7:O23)=0,#N/A,$E3-SUM(F7:L23))</f>
+        <v>16</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <f aca="false">IF(SUM(M7:O23)=0,#N/A,$E3-SUM(F7:M23))</f>
+        <v>13</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <f aca="false">IF(SUM(N7:O23)=0,#N/A,$E3-SUM(F7:N23))</f>
+        <v>10</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <f aca="false">IF(SUM(O7:O23)=0,#N/A,$E3-SUM(F7:O23))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <f aca="false">COUNTIF(E7:E23,B4)</f>
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <f aca="false">SUM(D7:D23)</f>
+        <v>35</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <f aca="false">E4-$E4/O2</f>
+        <v>31.5</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <f aca="false">F4-$E4/O2</f>
+        <v>28</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <f aca="false">G4-$E4/O2</f>
+        <v>24.5</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <f aca="false">H4-$E4/O2</f>
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <f aca="false">I4-$E4/O2</f>
+        <v>17.5</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <f aca="false">J4-$E4/O2</f>
+        <v>14</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <f aca="false">K4-$E4/O2</f>
+        <v>10.5</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <f aca="false">L4-$E4/O2</f>
+        <v>7</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <f aca="false">M4-$E4/O2</f>
+        <v>3.5</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <f aca="false">N4-$E4/O2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/misc/burndown-charts.xlsx
+++ b/misc/burndown-charts.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="_xlchart.v2.0" vbProcedure="false">Burndown!$C$2:$C$4</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="72">
   <si>
     <t xml:space="preserve">Backlog</t>
   </si>
@@ -225,6 +226,24 @@
   </si>
   <si>
     <t xml:space="preserve">Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint4</t>
   </si>
 </sst>
 </file>
@@ -235,7 +254,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -298,6 +317,11 @@
       <sz val="9"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -432,7 +456,6 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -451,7 +474,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -482,10 +505,10 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FFA6A6A6"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -798,11 +821,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="18261192"/>
-        <c:axId val="12611841"/>
+        <c:axId val="34599270"/>
+        <c:axId val="99618603"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18261192"/>
+        <c:axId val="34599270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,12 +861,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12611841"/>
+        <c:crossAx val="99618603"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12611841"/>
+        <c:axId val="99618603"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +899,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18261192"/>
+        <c:crossAx val="34599270"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1210,11 +1233,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="5559512"/>
-        <c:axId val="81414807"/>
+        <c:axId val="5969537"/>
+        <c:axId val="2114674"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5559512"/>
+        <c:axId val="5969537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,12 +1273,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81414807"/>
+        <c:crossAx val="2114674"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81414807"/>
+        <c:axId val="2114674"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1311,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5559512"/>
+        <c:crossAx val="5969537"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1622,11 +1645,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="21785524"/>
-        <c:axId val="25945365"/>
+        <c:axId val="97805014"/>
+        <c:axId val="89932812"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="21785524"/>
+        <c:axId val="97805014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,12 +1685,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25945365"/>
+        <c:crossAx val="89932812"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25945365"/>
+        <c:axId val="89932812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1723,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21785524"/>
+        <c:crossAx val="97805014"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2034,11 +2057,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="74642919"/>
-        <c:axId val="44768828"/>
+        <c:axId val="64638906"/>
+        <c:axId val="54574044"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74642919"/>
+        <c:axId val="64638906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,12 +2097,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44768828"/>
+        <c:crossAx val="54574044"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44768828"/>
+        <c:axId val="54574044"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,7 +2135,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74642919"/>
+        <c:crossAx val="64638906"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2140,6 +2163,291 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Esperado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sprint1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Completado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sprint1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="64029931"/>
+        <c:axId val="22827828"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="64029931"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22827828"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="22827828"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64029931"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2151,9 +2459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>451440</xdr:colOff>
+      <xdr:colOff>451080</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2161,8 +2469,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3951360" y="5617800"/>
-        <a:ext cx="7025040" cy="2346120"/>
+        <a:off x="3970440" y="5617800"/>
+        <a:ext cx="7034040" cy="2345760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2186,9 +2494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>507600</xdr:colOff>
+      <xdr:colOff>507240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2196,8 +2504,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4007520" y="3021120"/>
-        <a:ext cx="7025040" cy="2285280"/>
+        <a:off x="4026600" y="3021120"/>
+        <a:ext cx="7034040" cy="2284920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2221,9 +2529,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>568800</xdr:colOff>
+      <xdr:colOff>568440</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2231,8 +2539,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4068720" y="3789000"/>
-        <a:ext cx="7025040" cy="2285280"/>
+        <a:off x="4087800" y="3789000"/>
+        <a:ext cx="7034040" cy="2284920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2256,9 +2564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>329400</xdr:colOff>
+      <xdr:colOff>329040</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2266,8 +2574,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3829320" y="4515480"/>
-        <a:ext cx="7025040" cy="2285280"/>
+        <a:off x="3848400" y="4515480"/>
+        <a:ext cx="7034040" cy="2284920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339480</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6152400" y="1204560"/>
+        <a:ext cx="5756040" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2304,15 +2647,15 @@
   <dimension ref="B1:O24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
+      <selection pane="topLeft" activeCell="L47" activeCellId="0" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -3330,9 +3673,9 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -3745,9 +4088,9 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -4406,16 +4749,16 @@
   </sheetPr>
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -5237,4 +5580,96 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:C16"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2753036437247"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">Burndown!E4</f>
+        <v>54</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">Burndown!E4-Burndown!O3</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">Sheet2!E4</f>
+        <v>26</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">Sheet2!E4-Sheet2!O3</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">Sheet3!E4</f>
+        <v>46</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">Sheet3!E4-Sheet3!O3</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">Sheet4!E4</f>
+        <v>35</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">Sheet4!E4-Sheet4!O3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>